--- a/data/case1/5/Q2_14.xlsx
+++ b/data/case1/5/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.2652955371681287</v>
+        <v>0.1621188509149718</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999635316215</v>
+        <v>-0.0059999999365878409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999680802034</v>
+        <v>-0.0039999999447282164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999416564549</v>
+        <v>-0.0079999998966933106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999671250777</v>
+        <v>-0.0029999999422525292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999649176203</v>
+        <v>-0.001999999937282837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999184730015</v>
+        <v>-0.0099999998547999347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999181226151</v>
+        <v>-0.0099999998573969684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.034322520625871267</v>
+        <v>-0.0019999999466344676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999613933284</v>
+        <v>0.049944486930726839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.002999999955283883</v>
+        <v>-0.002999999943033238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999515741287</v>
+        <v>-0.0034999999374112356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999484597311</v>
+        <v>-0.0034999999357481215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999215889517</v>
+        <v>-0.007999999888904874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999613272692</v>
+        <v>-0.00099999996177135841</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999549855652</v>
+        <v>-0.0019999999520283751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999541422397</v>
+        <v>0.011464490298361163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999423798727</v>
+        <v>-0.0039999999328257374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.074322757299911224</v>
+        <v>-0.0039999999571187494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018649468744705189</v>
+        <v>-0.0039999999536863839</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999696318511</v>
+        <v>-0.0039999999531827868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999694062538</v>
+        <v>-0.0039999999527751129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999960547008</v>
+        <v>-0.025799109927378439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999987096146</v>
+        <v>0.0085033845297486366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999869349416</v>
+        <v>-0.019999999770527133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999606691858</v>
+        <v>-0.0024999999292614206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999587480559</v>
+        <v>-0.0024999999247956595</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999536413071</v>
+        <v>-0.0019999999072481955</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999192758011</v>
+        <v>-0.0069999998392304974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999611275889</v>
+        <v>-0.0599999992821596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.012342794042861982</v>
+        <v>-0.0069999998266414565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998984348082</v>
+        <v>-0.0099999997948643227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999328372837</v>
+        <v>-0.0039999998568518436</v>
       </c>
     </row>
   </sheetData>
